--- a/trunk/documentation/0 architecture/tracking-table.xlsx
+++ b/trunk/documentation/0 architecture/tracking-table.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -175,6 +175,10 @@
   </si>
   <si>
     <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 매뉴얼</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,10 +591,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AH33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
+      <selection activeCell="AF34" sqref="AF34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
@@ -628,10 +632,11 @@
     <col min="31" max="31" width="18.375" style="2" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="20.5" style="2" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="2"/>
+    <col min="34" max="34" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -731,8 +736,11 @@
       <c r="AG1" s="5" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH1" s="5" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -782,8 +790,9 @@
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
-    </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH2" s="3"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -841,8 +850,9 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH3" s="3"/>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -876,8 +886,9 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH4" s="3"/>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -911,8 +922,9 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH5" s="3"/>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -946,8 +958,9 @@
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
-    </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH6" s="3"/>
+    </row>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -981,8 +994,9 @@
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
-    </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH7" s="3"/>
+    </row>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -1016,8 +1030,9 @@
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
-    </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH8" s="3"/>
+    </row>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1051,8 +1066,9 @@
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
-    </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH9" s="3"/>
+    </row>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1086,8 +1102,9 @@
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
-    </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH10" s="3"/>
+    </row>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1121,8 +1138,9 @@
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
-    </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH11" s="3"/>
+    </row>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1156,8 +1174,9 @@
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
-    </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH12" s="3"/>
+    </row>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -1191,8 +1210,9 @@
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
-    </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH13" s="3"/>
+    </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -1226,8 +1246,9 @@
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
-    </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH14" s="3"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -1261,8 +1282,9 @@
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
-    </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH15" s="3"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -1296,8 +1318,9 @@
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
-    </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH16" s="3"/>
+    </row>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -1331,8 +1354,9 @@
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
-    </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH17" s="3"/>
+    </row>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -1366,8 +1390,9 @@
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
-    </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH18" s="3"/>
+    </row>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1401,8 +1426,9 @@
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
-    </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH19" s="3"/>
+    </row>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -1436,8 +1462,9 @@
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
-    </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH20" s="3"/>
+    </row>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -1471,8 +1498,9 @@
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
-    </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH21" s="3"/>
+    </row>
+    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -1506,8 +1534,9 @@
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
-    </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH22" s="3"/>
+    </row>
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -1541,8 +1570,9 @@
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
-    </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH23" s="3"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -1576,8 +1606,9 @@
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
-    </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH24" s="3"/>
+    </row>
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -1611,8 +1642,9 @@
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
-    </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH25" s="3"/>
+    </row>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -1646,8 +1678,9 @@
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
-    </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH26" s="3"/>
+    </row>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -1681,8 +1714,9 @@
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
-    </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH27" s="3"/>
+    </row>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1716,8 +1750,9 @@
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
-    </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH28" s="3"/>
+    </row>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -1751,8 +1786,9 @@
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
-    </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH29" s="3"/>
+    </row>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -1786,8 +1822,9 @@
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
-    </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH30" s="3"/>
+    </row>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -1821,8 +1858,9 @@
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
-    </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH31" s="3"/>
+    </row>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -1856,8 +1894,9 @@
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
-    </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+      <c r="AH32" s="3"/>
+    </row>
+    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -1891,6 +1930,7 @@
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
+      <c r="AH33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/trunk/documentation/0 architecture/tracking-table.xlsx
+++ b/trunk/documentation/0 architecture/tracking-table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="90" windowWidth="17235" windowHeight="7605"/>
+    <workbookView xWindow="600" yWindow="90" windowWidth="15600" windowHeight="7605"/>
   </bookViews>
   <sheets>
     <sheet name="tracking table" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -28,157 +28,165 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Controller</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>View</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Table</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sequence</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DTO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Message Key</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트 시나리오 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 테스트 시나리오 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 테스트 시나리오 ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org/codelabor/example/emp/dto/EmpDto.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N/A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org/codelabor/example/emp/web/contoller/EmpController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org/codelabor/example/emp/dao/EmpDao.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DAO Impl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org/codelabor/example/emp/dao/mybatis/MyBatisEmpDaoImpl.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Impl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manager Impl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Job Impl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>요구사항명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메뉴명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>화면명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 테스트 시나리오명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통합 테스트 시나리오명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 테스트 시나리오명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org/codelabor/example/helloworld/service/HelloWorldService.java</t>
+  </si>
+  <si>
+    <t>org/codelabor/example/helloworld/service/HelloWorldServiceImpl.java</t>
+  </si>
+  <si>
+    <t>org/codelabor/example/emp/manager/EmpManager.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>org/codelabor/example/emp/manager/EmpManagerImpl.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>URL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자 매뉴얼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>담당자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SQL ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Controller</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>View</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로세스 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Table</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Sequence</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DTO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAO</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Message Key</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위 테스트 시나리오 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 테스트 시나리오 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 테스트 시나리오 ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org/codelabor/example/emp/dto/EmpDto.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org/codelabor/example/emp/web/contoller/EmpController.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org/codelabor/example/emp/dao/EmpDao.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DAO Impl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org/codelabor/example/emp/dao/mybatis/MyBatisEmpDaoImpl.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Service Impl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Manager Impl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Job Impl</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로세스명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>메뉴명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>화면명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단위 테스트 시나리오명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>통합 테스트 시나리오명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 테스트 시나리오명</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org/codelabor/example/helloworld/service/HelloWorldService.java</t>
-  </si>
-  <si>
-    <t>org/codelabor/example/helloworld/service/HelloWorldServiceImpl.java</t>
-  </si>
-  <si>
-    <t>org/codelabor/example/emp/manager/EmpManager.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>org/codelabor/example/emp/manager/EmpManagerImpl.java</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>URL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자 매뉴얼</t>
+    <t>SQL Namespace</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -591,275 +599,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH33"/>
+  <dimension ref="A1:AJ33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AC1" workbookViewId="0">
-      <selection activeCell="AF34" sqref="AF34"/>
+    <sheetView tabSelected="1" topLeftCell="P1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="35.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="49.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="53.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="52.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="55.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="4.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="7.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="35.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="51.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="5" style="2" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="49.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="52.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="55.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="4.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="7.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="35.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="51.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13" style="2" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="6.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="5" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8" style="2" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="6.5" style="2" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="6" style="2" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="6" style="2" customWidth="1"/>
-    <col min="24" max="24" width="4.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="47.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="4.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="18.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="6.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6" style="2" customWidth="1"/>
+    <col min="26" max="26" width="4.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="47.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.125" style="2" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="18.875" style="2" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="20.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="20" style="2" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="2"/>
+    <col min="32" max="32" width="18.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="20.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" style="2" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="37" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="S1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="T1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="V1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AC1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="V1" s="1" t="s">
+      <c r="AD1" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE1" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AF1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="AG1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="AH1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="AI1" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="X1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB1" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="AC1" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD1" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="AE1" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="AF1" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="AG1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="AH1" s="5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="I2" s="4"/>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="4"/>
+      <c r="K2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="K2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="M2" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N2" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="O2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="4"/>
+        <v>21</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="Q2" s="4"/>
       <c r="R2" s="4"/>
-      <c r="S2" s="3"/>
-      <c r="T2" s="3"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
       <c r="U2" s="3"/>
       <c r="V2" s="3"/>
-      <c r="W2" s="6"/>
-      <c r="X2" s="4"/>
-      <c r="Y2" s="4" t="s">
-        <v>21</v>
-      </c>
+      <c r="W2" s="3"/>
+      <c r="X2" s="3"/>
+      <c r="Y2" s="6"/>
       <c r="Z2" s="4"/>
-      <c r="AA2" s="4"/>
-      <c r="AB2" s="3"/>
-      <c r="AC2" s="3"/>
+      <c r="AA2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
       <c r="AF2" s="3"/>
       <c r="AG2" s="3"/>
       <c r="AH2" s="3"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI2" s="3"/>
+      <c r="AJ2" s="3"/>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
-      <c r="G3" s="4" t="s">
-        <v>19</v>
-      </c>
+      <c r="G3" s="3"/>
       <c r="H3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="I3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="K3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>19</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="Q3" s="4"/>
       <c r="R3" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="S3" s="3"/>
-      <c r="T3" s="3"/>
+        <v>18</v>
+      </c>
+      <c r="S3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="T3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="U3" s="3"/>
       <c r="V3" s="3"/>
-      <c r="W3" s="6"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="6"/>
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
       <c r="AD3" s="3"/>
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
       <c r="AH3" s="3"/>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-      <c r="G4" s="4"/>
+      <c r="G4" s="3"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
@@ -871,31 +891,33 @@
       <c r="P4" s="4"/>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
-      <c r="S4" s="3"/>
-      <c r="T4" s="3"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
       <c r="U4" s="3"/>
       <c r="V4" s="3"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="4"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="6"/>
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
-      <c r="AB4" s="3"/>
-      <c r="AC4" s="3"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
       <c r="AD4" s="3"/>
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
       <c r="AH4" s="3"/>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="4"/>
+      <c r="G5" s="3"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
@@ -907,31 +929,33 @@
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
       <c r="R5" s="4"/>
-      <c r="S5" s="3"/>
-      <c r="T5" s="3"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="6"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+      <c r="W5" s="3"/>
+      <c r="X5" s="3"/>
+      <c r="Y5" s="6"/>
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
-      <c r="AB5" s="3"/>
-      <c r="AC5" s="3"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
       <c r="AD5" s="3"/>
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
       <c r="AH5" s="3"/>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI5" s="3"/>
+      <c r="AJ5" s="3"/>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
+      <c r="G6" s="3"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
@@ -943,31 +967,33 @@
       <c r="P6" s="4"/>
       <c r="Q6" s="4"/>
       <c r="R6" s="4"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="6"/>
-      <c r="X6" s="4"/>
-      <c r="Y6" s="4"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="6"/>
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
-      <c r="AB6" s="3"/>
-      <c r="AC6" s="3"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
       <c r="AF6" s="3"/>
       <c r="AG6" s="3"/>
       <c r="AH6" s="3"/>
-    </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI6" s="3"/>
+      <c r="AJ6" s="3"/>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="4"/>
+      <c r="G7" s="3"/>
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
@@ -979,31 +1005,33 @@
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
       <c r="R7" s="4"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="4"/>
+      <c r="W7" s="3"/>
+      <c r="X7" s="3"/>
+      <c r="Y7" s="6"/>
       <c r="Z7" s="4"/>
       <c r="AA7" s="4"/>
-      <c r="AB7" s="3"/>
-      <c r="AC7" s="3"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
       <c r="AD7" s="3"/>
       <c r="AE7" s="3"/>
       <c r="AF7" s="3"/>
       <c r="AG7" s="3"/>
       <c r="AH7" s="3"/>
-    </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI7" s="3"/>
+      <c r="AJ7" s="3"/>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
-      <c r="G8" s="4"/>
+      <c r="G8" s="3"/>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
@@ -1015,31 +1043,33 @@
       <c r="P8" s="4"/>
       <c r="Q8" s="4"/>
       <c r="R8" s="4"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="6"/>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="4"/>
+      <c r="W8" s="3"/>
+      <c r="X8" s="3"/>
+      <c r="Y8" s="6"/>
       <c r="Z8" s="4"/>
       <c r="AA8" s="4"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
       <c r="AD8" s="3"/>
       <c r="AE8" s="3"/>
       <c r="AF8" s="3"/>
       <c r="AG8" s="3"/>
       <c r="AH8" s="3"/>
-    </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI8" s="3"/>
+      <c r="AJ8" s="3"/>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="4"/>
+      <c r="G9" s="3"/>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
@@ -1051,31 +1081,33 @@
       <c r="P9" s="4"/>
       <c r="Q9" s="4"/>
       <c r="R9" s="4"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="6"/>
-      <c r="X9" s="4"/>
-      <c r="Y9" s="4"/>
+      <c r="W9" s="3"/>
+      <c r="X9" s="3"/>
+      <c r="Y9" s="6"/>
       <c r="Z9" s="4"/>
       <c r="AA9" s="4"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
       <c r="AD9" s="3"/>
       <c r="AE9" s="3"/>
       <c r="AF9" s="3"/>
       <c r="AG9" s="3"/>
       <c r="AH9" s="3"/>
-    </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI9" s="3"/>
+      <c r="AJ9" s="3"/>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
-      <c r="G10" s="4"/>
+      <c r="G10" s="3"/>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
@@ -1087,31 +1119,33 @@
       <c r="P10" s="4"/>
       <c r="Q10" s="4"/>
       <c r="R10" s="4"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="4"/>
-      <c r="Y10" s="4"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="6"/>
       <c r="Z10" s="4"/>
       <c r="AA10" s="4"/>
-      <c r="AB10" s="3"/>
-      <c r="AC10" s="3"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
       <c r="AD10" s="3"/>
       <c r="AE10" s="3"/>
       <c r="AF10" s="3"/>
       <c r="AG10" s="3"/>
       <c r="AH10" s="3"/>
-    </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI10" s="3"/>
+      <c r="AJ10" s="3"/>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="G11" s="3"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
@@ -1123,31 +1157,33 @@
       <c r="P11" s="4"/>
       <c r="Q11" s="4"/>
       <c r="R11" s="4"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="4"/>
+      <c r="W11" s="3"/>
+      <c r="X11" s="3"/>
+      <c r="Y11" s="6"/>
       <c r="Z11" s="4"/>
       <c r="AA11" s="4"/>
-      <c r="AB11" s="3"/>
-      <c r="AC11" s="3"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
       <c r="AD11" s="3"/>
       <c r="AE11" s="3"/>
       <c r="AF11" s="3"/>
       <c r="AG11" s="3"/>
       <c r="AH11" s="3"/>
-    </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI11" s="3"/>
+      <c r="AJ11" s="3"/>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
-      <c r="G12" s="4"/>
+      <c r="G12" s="3"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
@@ -1159,31 +1195,33 @@
       <c r="P12" s="4"/>
       <c r="Q12" s="4"/>
       <c r="R12" s="4"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="6"/>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="4"/>
+      <c r="W12" s="3"/>
+      <c r="X12" s="3"/>
+      <c r="Y12" s="6"/>
       <c r="Z12" s="4"/>
       <c r="AA12" s="4"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
       <c r="AD12" s="3"/>
       <c r="AE12" s="3"/>
       <c r="AF12" s="3"/>
       <c r="AG12" s="3"/>
       <c r="AH12" s="3"/>
-    </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI12" s="3"/>
+      <c r="AJ12" s="3"/>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
-      <c r="G13" s="4"/>
+      <c r="G13" s="3"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
       <c r="J13" s="4"/>
@@ -1195,31 +1233,33 @@
       <c r="P13" s="4"/>
       <c r="Q13" s="4"/>
       <c r="R13" s="4"/>
-      <c r="S13" s="3"/>
-      <c r="T13" s="3"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="4"/>
+      <c r="W13" s="3"/>
+      <c r="X13" s="3"/>
+      <c r="Y13" s="6"/>
       <c r="Z13" s="4"/>
       <c r="AA13" s="4"/>
-      <c r="AB13" s="3"/>
-      <c r="AC13" s="3"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
       <c r="AD13" s="3"/>
       <c r="AE13" s="3"/>
       <c r="AF13" s="3"/>
       <c r="AG13" s="3"/>
       <c r="AH13" s="3"/>
-    </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI13" s="3"/>
+      <c r="AJ13" s="3"/>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
-      <c r="G14" s="4"/>
+      <c r="G14" s="3"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
@@ -1231,31 +1271,33 @@
       <c r="P14" s="4"/>
       <c r="Q14" s="4"/>
       <c r="R14" s="4"/>
-      <c r="S14" s="3"/>
-      <c r="T14" s="3"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="4"/>
-      <c r="Y14" s="4"/>
+      <c r="W14" s="3"/>
+      <c r="X14" s="3"/>
+      <c r="Y14" s="6"/>
       <c r="Z14" s="4"/>
       <c r="AA14" s="4"/>
-      <c r="AB14" s="3"/>
-      <c r="AC14" s="3"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
       <c r="AD14" s="3"/>
       <c r="AE14" s="3"/>
       <c r="AF14" s="3"/>
       <c r="AG14" s="3"/>
       <c r="AH14" s="3"/>
-    </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI14" s="3"/>
+      <c r="AJ14" s="3"/>
+    </row>
+    <row r="15" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="4"/>
+      <c r="G15" s="3"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="4"/>
@@ -1267,31 +1309,33 @@
       <c r="P15" s="4"/>
       <c r="Q15" s="4"/>
       <c r="R15" s="4"/>
-      <c r="S15" s="3"/>
-      <c r="T15" s="3"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="4"/>
-      <c r="Y15" s="4"/>
+      <c r="W15" s="3"/>
+      <c r="X15" s="3"/>
+      <c r="Y15" s="6"/>
       <c r="Z15" s="4"/>
       <c r="AA15" s="4"/>
-      <c r="AB15" s="3"/>
-      <c r="AC15" s="3"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
       <c r="AD15" s="3"/>
       <c r="AE15" s="3"/>
       <c r="AF15" s="3"/>
       <c r="AG15" s="3"/>
       <c r="AH15" s="3"/>
-    </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI15" s="3"/>
+      <c r="AJ15" s="3"/>
+    </row>
+    <row r="16" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="3"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
@@ -1303,31 +1347,33 @@
       <c r="P16" s="4"/>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
-      <c r="S16" s="3"/>
-      <c r="T16" s="3"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="4"/>
-      <c r="Y16" s="4"/>
+      <c r="W16" s="3"/>
+      <c r="X16" s="3"/>
+      <c r="Y16" s="6"/>
       <c r="Z16" s="4"/>
       <c r="AA16" s="4"/>
-      <c r="AB16" s="3"/>
-      <c r="AC16" s="3"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
       <c r="AD16" s="3"/>
       <c r="AE16" s="3"/>
       <c r="AF16" s="3"/>
       <c r="AG16" s="3"/>
       <c r="AH16" s="3"/>
-    </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI16" s="3"/>
+      <c r="AJ16" s="3"/>
+    </row>
+    <row r="17" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
-      <c r="G17" s="4"/>
+      <c r="G17" s="3"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
@@ -1339,31 +1385,33 @@
       <c r="P17" s="4"/>
       <c r="Q17" s="4"/>
       <c r="R17" s="4"/>
-      <c r="S17" s="3"/>
-      <c r="T17" s="3"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="6"/>
-      <c r="X17" s="4"/>
-      <c r="Y17" s="4"/>
+      <c r="W17" s="3"/>
+      <c r="X17" s="3"/>
+      <c r="Y17" s="6"/>
       <c r="Z17" s="4"/>
       <c r="AA17" s="4"/>
-      <c r="AB17" s="3"/>
-      <c r="AC17" s="3"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
       <c r="AD17" s="3"/>
       <c r="AE17" s="3"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
-    </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI17" s="3"/>
+      <c r="AJ17" s="3"/>
+    </row>
+    <row r="18" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
-      <c r="G18" s="4"/>
+      <c r="G18" s="3"/>
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
       <c r="J18" s="4"/>
@@ -1375,31 +1423,33 @@
       <c r="P18" s="4"/>
       <c r="Q18" s="4"/>
       <c r="R18" s="4"/>
-      <c r="S18" s="3"/>
-      <c r="T18" s="3"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="6"/>
-      <c r="X18" s="4"/>
-      <c r="Y18" s="4"/>
+      <c r="W18" s="3"/>
+      <c r="X18" s="3"/>
+      <c r="Y18" s="6"/>
       <c r="Z18" s="4"/>
       <c r="AA18" s="4"/>
-      <c r="AB18" s="3"/>
-      <c r="AC18" s="3"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
       <c r="AD18" s="3"/>
       <c r="AE18" s="3"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
-    </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI18" s="3"/>
+      <c r="AJ18" s="3"/>
+    </row>
+    <row r="19" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
+      <c r="G19" s="3"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
       <c r="J19" s="4"/>
@@ -1411,31 +1461,33 @@
       <c r="P19" s="4"/>
       <c r="Q19" s="4"/>
       <c r="R19" s="4"/>
-      <c r="S19" s="3"/>
-      <c r="T19" s="3"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="4"/>
-      <c r="Y19" s="4"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="6"/>
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
-      <c r="AB19" s="3"/>
-      <c r="AC19" s="3"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
       <c r="AD19" s="3"/>
       <c r="AE19" s="3"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
-    </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+    </row>
+    <row r="20" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
-      <c r="G20" s="4"/>
+      <c r="G20" s="3"/>
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
       <c r="J20" s="4"/>
@@ -1447,31 +1499,33 @@
       <c r="P20" s="4"/>
       <c r="Q20" s="4"/>
       <c r="R20" s="4"/>
-      <c r="S20" s="3"/>
-      <c r="T20" s="3"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="6"/>
-      <c r="X20" s="4"/>
-      <c r="Y20" s="4"/>
+      <c r="W20" s="3"/>
+      <c r="X20" s="3"/>
+      <c r="Y20" s="6"/>
       <c r="Z20" s="4"/>
       <c r="AA20" s="4"/>
-      <c r="AB20" s="3"/>
-      <c r="AC20" s="3"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
       <c r="AD20" s="3"/>
       <c r="AE20" s="3"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
-    </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI20" s="3"/>
+      <c r="AJ20" s="3"/>
+    </row>
+    <row r="21" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
-      <c r="G21" s="4"/>
+      <c r="G21" s="3"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
       <c r="J21" s="4"/>
@@ -1483,31 +1537,33 @@
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
       <c r="R21" s="4"/>
-      <c r="S21" s="3"/>
-      <c r="T21" s="3"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="6"/>
-      <c r="X21" s="4"/>
-      <c r="Y21" s="4"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="6"/>
       <c r="Z21" s="4"/>
       <c r="AA21" s="4"/>
-      <c r="AB21" s="3"/>
-      <c r="AC21" s="3"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
       <c r="AD21" s="3"/>
       <c r="AE21" s="3"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
-    </row>
-    <row r="22" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI21" s="3"/>
+      <c r="AJ21" s="3"/>
+    </row>
+    <row r="22" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="4"/>
+      <c r="G22" s="3"/>
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
@@ -1519,31 +1575,33 @@
       <c r="P22" s="4"/>
       <c r="Q22" s="4"/>
       <c r="R22" s="4"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="4"/>
-      <c r="Y22" s="4"/>
+      <c r="W22" s="3"/>
+      <c r="X22" s="3"/>
+      <c r="Y22" s="6"/>
       <c r="Z22" s="4"/>
       <c r="AA22" s="4"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
       <c r="AD22" s="3"/>
       <c r="AE22" s="3"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
-    </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI22" s="3"/>
+      <c r="AJ22" s="3"/>
+    </row>
+    <row r="23" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="3"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
@@ -1555,31 +1613,33 @@
       <c r="P23" s="4"/>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="4"/>
-      <c r="Y23" s="4"/>
+      <c r="W23" s="3"/>
+      <c r="X23" s="3"/>
+      <c r="Y23" s="6"/>
       <c r="Z23" s="4"/>
       <c r="AA23" s="4"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
       <c r="AD23" s="3"/>
       <c r="AE23" s="3"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI23" s="3"/>
+      <c r="AJ23" s="3"/>
+    </row>
+    <row r="24" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="3"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
@@ -1591,31 +1651,33 @@
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
       <c r="R24" s="4"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="4"/>
-      <c r="Y24" s="4"/>
+      <c r="W24" s="3"/>
+      <c r="X24" s="3"/>
+      <c r="Y24" s="6"/>
       <c r="Z24" s="4"/>
       <c r="AA24" s="4"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
       <c r="AD24" s="3"/>
       <c r="AE24" s="3"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
-    </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI24" s="3"/>
+      <c r="AJ24" s="3"/>
+    </row>
+    <row r="25" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="3"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
@@ -1627,31 +1689,33 @@
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
       <c r="R25" s="4"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="6"/>
-      <c r="X25" s="4"/>
-      <c r="Y25" s="4"/>
+      <c r="W25" s="3"/>
+      <c r="X25" s="3"/>
+      <c r="Y25" s="6"/>
       <c r="Z25" s="4"/>
       <c r="AA25" s="4"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
       <c r="AD25" s="3"/>
       <c r="AE25" s="3"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
-    </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI25" s="3"/>
+      <c r="AJ25" s="3"/>
+    </row>
+    <row r="26" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="3"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
@@ -1663,31 +1727,33 @@
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
       <c r="R26" s="4"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="6"/>
-      <c r="X26" s="4"/>
-      <c r="Y26" s="4"/>
+      <c r="W26" s="3"/>
+      <c r="X26" s="3"/>
+      <c r="Y26" s="6"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
       <c r="AD26" s="3"/>
       <c r="AE26" s="3"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
-    </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI26" s="3"/>
+      <c r="AJ26" s="3"/>
+    </row>
+    <row r="27" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="3"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
@@ -1699,31 +1765,33 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
       <c r="R27" s="4"/>
-      <c r="S27" s="3"/>
-      <c r="T27" s="3"/>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="6"/>
-      <c r="X27" s="4"/>
-      <c r="Y27" s="4"/>
+      <c r="W27" s="3"/>
+      <c r="X27" s="3"/>
+      <c r="Y27" s="6"/>
       <c r="Z27" s="4"/>
       <c r="AA27" s="4"/>
-      <c r="AB27" s="3"/>
-      <c r="AC27" s="3"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
       <c r="AD27" s="3"/>
       <c r="AE27" s="3"/>
       <c r="AF27" s="3"/>
       <c r="AG27" s="3"/>
       <c r="AH27" s="3"/>
-    </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI27" s="3"/>
+      <c r="AJ27" s="3"/>
+    </row>
+    <row r="28" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
+      <c r="G28" s="3"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
@@ -1735,31 +1803,33 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
       <c r="R28" s="4"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="6"/>
-      <c r="X28" s="4"/>
-      <c r="Y28" s="4"/>
+      <c r="W28" s="3"/>
+      <c r="X28" s="3"/>
+      <c r="Y28" s="6"/>
       <c r="Z28" s="4"/>
       <c r="AA28" s="4"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
       <c r="AD28" s="3"/>
       <c r="AE28" s="3"/>
       <c r="AF28" s="3"/>
       <c r="AG28" s="3"/>
       <c r="AH28" s="3"/>
-    </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI28" s="3"/>
+      <c r="AJ28" s="3"/>
+    </row>
+    <row r="29" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="4"/>
+      <c r="G29" s="3"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
@@ -1771,31 +1841,33 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
       <c r="R29" s="4"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="6"/>
-      <c r="X29" s="4"/>
-      <c r="Y29" s="4"/>
+      <c r="W29" s="3"/>
+      <c r="X29" s="3"/>
+      <c r="Y29" s="6"/>
       <c r="Z29" s="4"/>
       <c r="AA29" s="4"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
       <c r="AD29" s="3"/>
       <c r="AE29" s="3"/>
       <c r="AF29" s="3"/>
       <c r="AG29" s="3"/>
       <c r="AH29" s="3"/>
-    </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI29" s="3"/>
+      <c r="AJ29" s="3"/>
+    </row>
+    <row r="30" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
-      <c r="G30" s="4"/>
+      <c r="G30" s="3"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -1807,31 +1879,33 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
       <c r="R30" s="4"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="6"/>
-      <c r="X30" s="4"/>
-      <c r="Y30" s="4"/>
+      <c r="W30" s="3"/>
+      <c r="X30" s="3"/>
+      <c r="Y30" s="6"/>
       <c r="Z30" s="4"/>
       <c r="AA30" s="4"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
       <c r="AD30" s="3"/>
       <c r="AE30" s="3"/>
       <c r="AF30" s="3"/>
       <c r="AG30" s="3"/>
       <c r="AH30" s="3"/>
-    </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI30" s="3"/>
+      <c r="AJ30" s="3"/>
+    </row>
+    <row r="31" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
-      <c r="G31" s="4"/>
+      <c r="G31" s="3"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
@@ -1843,31 +1917,33 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="6"/>
-      <c r="X31" s="4"/>
-      <c r="Y31" s="4"/>
+      <c r="W31" s="3"/>
+      <c r="X31" s="3"/>
+      <c r="Y31" s="6"/>
       <c r="Z31" s="4"/>
       <c r="AA31" s="4"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
       <c r="AD31" s="3"/>
       <c r="AE31" s="3"/>
       <c r="AF31" s="3"/>
       <c r="AG31" s="3"/>
       <c r="AH31" s="3"/>
-    </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI31" s="3"/>
+      <c r="AJ31" s="3"/>
+    </row>
+    <row r="32" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
-      <c r="G32" s="4"/>
+      <c r="G32" s="3"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -1879,31 +1955,33 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
       <c r="R32" s="4"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="6"/>
-      <c r="X32" s="4"/>
-      <c r="Y32" s="4"/>
+      <c r="W32" s="3"/>
+      <c r="X32" s="3"/>
+      <c r="Y32" s="6"/>
       <c r="Z32" s="4"/>
       <c r="AA32" s="4"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
       <c r="AD32" s="3"/>
       <c r="AE32" s="3"/>
       <c r="AF32" s="3"/>
       <c r="AG32" s="3"/>
       <c r="AH32" s="3"/>
-    </row>
-    <row r="33" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AI32" s="3"/>
+      <c r="AJ32" s="3"/>
+    </row>
+    <row r="33" spans="1:36" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
-      <c r="G33" s="4"/>
+      <c r="G33" s="3"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -1915,22 +1993,24 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
       <c r="R33" s="4"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="6"/>
-      <c r="X33" s="4"/>
-      <c r="Y33" s="4"/>
+      <c r="W33" s="3"/>
+      <c r="X33" s="3"/>
+      <c r="Y33" s="6"/>
       <c r="Z33" s="4"/>
       <c r="AA33" s="4"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
       <c r="AD33" s="3"/>
       <c r="AE33" s="3"/>
       <c r="AF33" s="3"/>
       <c r="AG33" s="3"/>
       <c r="AH33" s="3"/>
+      <c r="AI33" s="3"/>
+      <c r="AJ33" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
